--- a/out/CE/FigA_18.xlsx
+++ b/out/CE/FigA_18.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FFE380-4B3F-4109-91F8-81BB4A3C12FA}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.61712</v>
+        <v>0.61214000000000002</v>
       </c>
       <c r="B1">
-        <v>0.58326</v>
+        <v>0.61585999999999996</v>
       </c>
       <c r="C1">
-        <v>0.60019</v>
+        <v>0.61882000000000004</v>
+      </c>
+      <c r="D1">
+        <v>0.62048000000000003</v>
+      </c>
+      <c r="E1">
+        <v>0.61214000000000002</v>
+      </c>
+      <c r="F1">
+        <v>0.61021999999999998</v>
+      </c>
+      <c r="G1">
+        <v>0.61155999999999999</v>
+      </c>
+      <c r="H1">
+        <v>0.59718000000000004</v>
+      </c>
+      <c r="I1">
+        <v>0.62385999999999997</v>
+      </c>
+      <c r="J1">
+        <v>0.62175999999999998</v>
+      </c>
+      <c r="K1">
+        <v>0.60673999999999995</v>
+      </c>
+      <c r="L1">
+        <v>0.60221999999999998</v>
+      </c>
+      <c r="M1">
+        <v>0.59041999999999994</v>
+      </c>
+      <c r="N1">
+        <v>0.63653999999999999</v>
+      </c>
+      <c r="O1">
+        <v>0.61077999999999999</v>
+      </c>
+      <c r="P1">
+        <v>0.59374000000000005</v>
+      </c>
+      <c r="Q1">
+        <v>0.64476</v>
+      </c>
+      <c r="R1">
+        <v>0.58182</v>
+      </c>
+      <c r="S1">
+        <v>0.6179</v>
+      </c>
+      <c r="T1">
+        <v>0.60655999999999999</v>
+      </c>
+      <c r="U1">
+        <v>0.57891999999999999</v>
+      </c>
+      <c r="V1">
+        <v>0.59067999999999998</v>
+      </c>
+      <c r="W1">
+        <v>0.62063999999999997</v>
+      </c>
+      <c r="X1">
+        <v>0.60963999999999996</v>
+      </c>
+      <c r="Y1">
+        <v>0.63582000000000005</v>
+      </c>
+      <c r="Z1">
+        <v>0.60685999999999996</v>
+      </c>
+      <c r="AA1">
+        <v>0.60355999999999999</v>
+      </c>
+      <c r="AB1">
+        <v>0.60248000000000002</v>
+      </c>
+      <c r="AC1">
+        <v>0.60152000000000005</v>
+      </c>
+      <c r="AD1">
+        <v>0.62446000000000002</v>
+      </c>
+      <c r="AE1">
+        <v>0.60274000000000005</v>
+      </c>
+      <c r="AF1">
+        <v>0.60943999999999998</v>
+      </c>
+      <c r="AG1">
+        <v>0.60304000000000002</v>
+      </c>
+      <c r="AH1">
+        <v>0.59009999999999996</v>
+      </c>
+      <c r="AI1">
+        <v>0.59955999999999998</v>
+      </c>
+      <c r="AJ1">
+        <v>0.59618000000000004</v>
+      </c>
+      <c r="AK1">
+        <v>0.63641999999999999</v>
+      </c>
+      <c r="AL1">
+        <v>0.61438000000000004</v>
+      </c>
+      <c r="AM1">
+        <v>0.58818000000000004</v>
+      </c>
+      <c r="AN1">
+        <v>0.62422</v>
+      </c>
+      <c r="AO1">
+        <v>0.59863999999999995</v>
+      </c>
+      <c r="AP1">
+        <v>0.63329999999999997</v>
+      </c>
+      <c r="AQ1">
+        <v>0.61284000000000005</v>
+      </c>
+      <c r="AR1">
+        <v>0.61619999999999997</v>
+      </c>
+      <c r="AS1">
+        <v>0.62485999999999997</v>
+      </c>
+      <c r="AT1">
+        <v>0.59508000000000005</v>
+      </c>
+      <c r="AU1">
+        <v>0.60973999999999995</v>
+      </c>
+      <c r="AV1">
+        <v>0.59465999999999997</v>
+      </c>
+      <c r="AW1">
+        <v>0.60038000000000002</v>
+      </c>
+      <c r="AX1">
+        <v>0.59119999999999995</v>
+      </c>
+      <c r="AY1">
+        <v>0.61051999999999995</v>
+      </c>
+      <c r="AZ1">
+        <v>0.62319999999999998</v>
+      </c>
+      <c r="BA1">
+        <v>0.59816000000000003</v>
+      </c>
+      <c r="BB1">
+        <v>0.60562000000000005</v>
+      </c>
+      <c r="BC1">
+        <v>0.59794000000000003</v>
+      </c>
+      <c r="BD1">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="BE1">
+        <v>0.60363999999999995</v>
+      </c>
+      <c r="BF1">
+        <v>0.62619999999999998</v>
+      </c>
+      <c r="BG1">
+        <v>0.60184000000000004</v>
+      </c>
+      <c r="BH1">
+        <v>0.63649999999999995</v>
+      </c>
+      <c r="BI1">
+        <v>0.61656</v>
+      </c>
+      <c r="BJ1">
+        <v>0.58816000000000002</v>
+      </c>
+      <c r="BK1">
+        <v>0.59477999999999998</v>
+      </c>
+      <c r="BL1">
+        <v>0.62924000000000002</v>
+      </c>
+      <c r="BM1">
+        <v>0.62194000000000005</v>
+      </c>
+      <c r="BN1">
+        <v>0.59718000000000004</v>
+      </c>
+      <c r="BO1">
+        <v>0.60433999999999999</v>
+      </c>
+      <c r="BP1">
+        <v>0.61362000000000005</v>
+      </c>
+      <c r="BQ1">
+        <v>0.60504000000000002</v>
+      </c>
+      <c r="BR1">
+        <v>0.60748000000000002</v>
+      </c>
+      <c r="BS1">
+        <v>0.58731999999999995</v>
+      </c>
+      <c r="BT1">
+        <v>0.58160000000000001</v>
+      </c>
+      <c r="BU1">
+        <v>0.59508000000000005</v>
+      </c>
+      <c r="BV1">
+        <v>0.62565999999999999</v>
+      </c>
+      <c r="BW1">
+        <v>0.61094000000000004</v>
+      </c>
+      <c r="BX1">
+        <v>0.59562000000000004</v>
+      </c>
+      <c r="BY1">
+        <v>0.62087999999999999</v>
+      </c>
+      <c r="BZ1">
+        <v>0.60604000000000002</v>
+      </c>
+      <c r="CA1">
+        <v>0.6341</v>
+      </c>
+      <c r="CB1">
+        <v>0.59438000000000002</v>
+      </c>
+      <c r="CC1">
+        <v>0.61775999999999998</v>
+      </c>
+      <c r="CD1">
+        <v>0.59487999999999996</v>
+      </c>
+      <c r="CE1">
+        <v>0.64883999999999997</v>
+      </c>
+      <c r="CF1">
+        <v>0.60174000000000005</v>
+      </c>
+      <c r="CG1">
+        <v>0.62005999999999994</v>
+      </c>
+      <c r="CH1">
+        <v>0.59577999999999998</v>
+      </c>
+      <c r="CI1">
+        <v>0.59819999999999995</v>
+      </c>
+      <c r="CJ1">
+        <v>0.64961999999999998</v>
+      </c>
+      <c r="CK1">
+        <v>0.58662000000000003</v>
+      </c>
+      <c r="CL1">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="CM1">
+        <v>0.60760000000000003</v>
+      </c>
+      <c r="CN1">
+        <v>0.62294000000000005</v>
+      </c>
+      <c r="CO1">
+        <v>0.58511999999999997</v>
+      </c>
+      <c r="CP1">
+        <v>0.60343999999999998</v>
+      </c>
+      <c r="CQ1">
+        <v>0.60360000000000003</v>
+      </c>
+      <c r="CR1">
+        <v>0.61624000000000001</v>
+      </c>
+      <c r="CS1">
+        <v>0.6109</v>
+      </c>
+      <c r="CT1">
+        <v>0.60277999999999998</v>
+      </c>
+      <c r="CU1">
+        <v>0.57994000000000001</v>
+      </c>
+      <c r="CV1">
+        <v>0.60829999999999995</v>
+      </c>
+      <c r="CW1">
+        <v>0.60826680000000022</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.57728000000000002</v>
+        <v>0.56808000000000003</v>
       </c>
       <c r="B2">
-        <v>0.55089999999999995</v>
+        <v>0.56964000000000004</v>
       </c>
       <c r="C2">
-        <v>0.56408999999999998</v>
+        <v>0.58226</v>
+      </c>
+      <c r="D2">
+        <v>0.58118000000000003</v>
+      </c>
+      <c r="E2">
+        <v>0.56267999999999996</v>
+      </c>
+      <c r="F2">
+        <v>0.59760000000000002</v>
+      </c>
+      <c r="G2">
+        <v>0.60446</v>
+      </c>
+      <c r="H2">
+        <v>0.61817999999999995</v>
+      </c>
+      <c r="I2">
+        <v>0.55530000000000002</v>
+      </c>
+      <c r="J2">
+        <v>0.58997999999999995</v>
+      </c>
+      <c r="K2">
+        <v>0.59353999999999996</v>
+      </c>
+      <c r="L2">
+        <v>0.57806000000000002</v>
+      </c>
+      <c r="M2">
+        <v>0.58294000000000001</v>
+      </c>
+      <c r="N2">
+        <v>0.57972000000000001</v>
+      </c>
+      <c r="O2">
+        <v>0.56586000000000003</v>
+      </c>
+      <c r="P2">
+        <v>0.57489999999999997</v>
+      </c>
+      <c r="Q2">
+        <v>0.58076000000000005</v>
+      </c>
+      <c r="R2">
+        <v>0.57406000000000001</v>
+      </c>
+      <c r="S2">
+        <v>0.61882000000000004</v>
+      </c>
+      <c r="T2">
+        <v>0.58087999999999995</v>
+      </c>
+      <c r="U2">
+        <v>0.57726</v>
+      </c>
+      <c r="V2">
+        <v>0.61153999999999997</v>
+      </c>
+      <c r="W2">
+        <v>0.57823999999999998</v>
+      </c>
+      <c r="X2">
+        <v>0.57413999999999998</v>
+      </c>
+      <c r="Y2">
+        <v>0.59336</v>
+      </c>
+      <c r="Z2">
+        <v>0.53476000000000001</v>
+      </c>
+      <c r="AA2">
+        <v>0.59174000000000004</v>
+      </c>
+      <c r="AB2">
+        <v>0.57264000000000004</v>
+      </c>
+      <c r="AC2">
+        <v>0.58672000000000002</v>
+      </c>
+      <c r="AD2">
+        <v>0.59123999999999999</v>
+      </c>
+      <c r="AE2">
+        <v>0.58618000000000003</v>
+      </c>
+      <c r="AF2">
+        <v>0.59360000000000002</v>
+      </c>
+      <c r="AG2">
+        <v>0.5776</v>
+      </c>
+      <c r="AH2">
+        <v>0.56752000000000002</v>
+      </c>
+      <c r="AI2">
+        <v>0.56994</v>
+      </c>
+      <c r="AJ2">
+        <v>0.59108000000000005</v>
+      </c>
+      <c r="AK2">
+        <v>0.58657999999999999</v>
+      </c>
+      <c r="AL2">
+        <v>0.55837999999999999</v>
+      </c>
+      <c r="AM2">
+        <v>0.60429999999999995</v>
+      </c>
+      <c r="AN2">
+        <v>0.58340000000000003</v>
+      </c>
+      <c r="AO2">
+        <v>0.56852000000000003</v>
+      </c>
+      <c r="AP2">
+        <v>0.58845999999999998</v>
+      </c>
+      <c r="AQ2">
+        <v>0.57033999999999996</v>
+      </c>
+      <c r="AR2">
+        <v>0.58716000000000002</v>
+      </c>
+      <c r="AS2">
+        <v>0.56118000000000001</v>
+      </c>
+      <c r="AT2">
+        <v>0.59096000000000004</v>
+      </c>
+      <c r="AU2">
+        <v>0.60402</v>
+      </c>
+      <c r="AV2">
+        <v>0.57579999999999998</v>
+      </c>
+      <c r="AW2">
+        <v>0.55676000000000003</v>
+      </c>
+      <c r="AX2">
+        <v>0.57508000000000004</v>
+      </c>
+      <c r="AY2">
+        <v>0.57462000000000002</v>
+      </c>
+      <c r="AZ2">
+        <v>0.57389999999999997</v>
+      </c>
+      <c r="BA2">
+        <v>0.57406000000000001</v>
+      </c>
+      <c r="BB2">
+        <v>0.58153999999999995</v>
+      </c>
+      <c r="BC2">
+        <v>0.60067999999999999</v>
+      </c>
+      <c r="BD2">
+        <v>0.58486000000000005</v>
+      </c>
+      <c r="BE2">
+        <v>0.56384000000000001</v>
+      </c>
+      <c r="BF2">
+        <v>0.56425999999999998</v>
+      </c>
+      <c r="BG2">
+        <v>0.59030000000000005</v>
+      </c>
+      <c r="BH2">
+        <v>0.56044000000000005</v>
+      </c>
+      <c r="BI2">
+        <v>0.58250000000000002</v>
+      </c>
+      <c r="BJ2">
+        <v>0.59353999999999996</v>
+      </c>
+      <c r="BK2">
+        <v>0.58433999999999997</v>
+      </c>
+      <c r="BL2">
+        <v>0.58318000000000003</v>
+      </c>
+      <c r="BM2">
+        <v>0.58396000000000003</v>
+      </c>
+      <c r="BN2">
+        <v>0.60841999999999996</v>
+      </c>
+      <c r="BO2">
+        <v>0.57116</v>
+      </c>
+      <c r="BP2">
+        <v>0.59208000000000005</v>
+      </c>
+      <c r="BQ2">
+        <v>0.57286000000000004</v>
+      </c>
+      <c r="BR2">
+        <v>0.58042000000000005</v>
+      </c>
+      <c r="BS2">
+        <v>0.58191999999999999</v>
+      </c>
+      <c r="BT2">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="BU2">
+        <v>0.57203999999999999</v>
+      </c>
+      <c r="BV2">
+        <v>0.60052000000000005</v>
+      </c>
+      <c r="BW2">
+        <v>0.56711999999999996</v>
+      </c>
+      <c r="BX2">
+        <v>0.61592000000000002</v>
+      </c>
+      <c r="BY2">
+        <v>0.57462000000000002</v>
+      </c>
+      <c r="BZ2">
+        <v>0.57484000000000002</v>
+      </c>
+      <c r="CA2">
+        <v>0.58684000000000003</v>
+      </c>
+      <c r="CB2">
+        <v>0.57811999999999997</v>
+      </c>
+      <c r="CC2">
+        <v>0.56647999999999998</v>
+      </c>
+      <c r="CD2">
+        <v>0.57230000000000003</v>
+      </c>
+      <c r="CE2">
+        <v>0.56769999999999998</v>
+      </c>
+      <c r="CF2">
+        <v>0.61992000000000003</v>
+      </c>
+      <c r="CG2">
+        <v>0.57945999999999998</v>
+      </c>
+      <c r="CH2">
+        <v>0.58413999999999999</v>
+      </c>
+      <c r="CI2">
+        <v>0.59079999999999999</v>
+      </c>
+      <c r="CJ2">
+        <v>0.58513999999999999</v>
+      </c>
+      <c r="CK2">
+        <v>0.60140000000000005</v>
+      </c>
+      <c r="CL2">
+        <v>0.59111999999999998</v>
+      </c>
+      <c r="CM2">
+        <v>0.56396000000000002</v>
+      </c>
+      <c r="CN2">
+        <v>0.54822000000000004</v>
+      </c>
+      <c r="CO2">
+        <v>0.59145999999999999</v>
+      </c>
+      <c r="CP2">
+        <v>0.60267999999999999</v>
+      </c>
+      <c r="CQ2">
+        <v>0.58345999999999998</v>
+      </c>
+      <c r="CR2">
+        <v>0.57308000000000003</v>
+      </c>
+      <c r="CS2">
+        <v>0.6069</v>
+      </c>
+      <c r="CT2">
+        <v>0.58008000000000004</v>
+      </c>
+      <c r="CU2">
+        <v>0.57857999999999998</v>
+      </c>
+      <c r="CV2">
+        <v>0.58487999999999996</v>
+      </c>
+      <c r="CW2">
+        <v>0.58157059999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.52710000000000001</v>
+        <v>0.53158000000000005</v>
       </c>
       <c r="B3">
-        <v>0.52210000000000001</v>
+        <v>0.53154000000000001</v>
       </c>
       <c r="C3">
-        <v>0.52459999999999996</v>
+        <v>0.52017999999999998</v>
+      </c>
+      <c r="D3">
+        <v>0.54764000000000002</v>
+      </c>
+      <c r="E3">
+        <v>0.51714000000000004</v>
+      </c>
+      <c r="F3">
+        <v>0.53591999999999995</v>
+      </c>
+      <c r="G3">
+        <v>0.55479999999999996</v>
+      </c>
+      <c r="H3">
+        <v>0.52810000000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.52905999999999997</v>
+      </c>
+      <c r="J3">
+        <v>0.53595999999999999</v>
+      </c>
+      <c r="K3">
+        <v>0.53180000000000005</v>
+      </c>
+      <c r="L3">
+        <v>0.52958000000000005</v>
+      </c>
+      <c r="M3">
+        <v>0.55149999999999999</v>
+      </c>
+      <c r="N3">
+        <v>0.52302000000000004</v>
+      </c>
+      <c r="O3">
+        <v>0.55137999999999998</v>
+      </c>
+      <c r="P3">
+        <v>0.53461999999999998</v>
+      </c>
+      <c r="Q3">
+        <v>0.53271999999999997</v>
+      </c>
+      <c r="R3">
+        <v>0.52898000000000001</v>
+      </c>
+      <c r="S3">
+        <v>0.54634000000000005</v>
+      </c>
+      <c r="T3">
+        <v>0.54779999999999995</v>
+      </c>
+      <c r="U3">
+        <v>0.53149999999999997</v>
+      </c>
+      <c r="V3">
+        <v>0.55522000000000005</v>
+      </c>
+      <c r="W3">
+        <v>0.56818000000000002</v>
+      </c>
+      <c r="X3">
+        <v>0.53091999999999995</v>
+      </c>
+      <c r="Y3">
+        <v>0.51795999999999998</v>
+      </c>
+      <c r="Z3">
+        <v>0.54305999999999999</v>
+      </c>
+      <c r="AA3">
+        <v>0.52678000000000003</v>
+      </c>
+      <c r="AB3">
+        <v>0.54261999999999999</v>
+      </c>
+      <c r="AC3">
+        <v>0.55823999999999996</v>
+      </c>
+      <c r="AD3">
+        <v>0.54220000000000002</v>
+      </c>
+      <c r="AE3">
+        <v>0.54866000000000004</v>
+      </c>
+      <c r="AF3">
+        <v>0.55906</v>
+      </c>
+      <c r="AG3">
+        <v>0.52188000000000001</v>
+      </c>
+      <c r="AH3">
+        <v>0.55208000000000002</v>
+      </c>
+      <c r="AI3">
+        <v>0.53446000000000005</v>
+      </c>
+      <c r="AJ3">
+        <v>0.52444000000000002</v>
+      </c>
+      <c r="AK3">
+        <v>0.53013999999999994</v>
+      </c>
+      <c r="AL3">
+        <v>0.54822000000000004</v>
+      </c>
+      <c r="AM3">
+        <v>0.53410000000000002</v>
+      </c>
+      <c r="AN3">
+        <v>0.53247999999999995</v>
+      </c>
+      <c r="AO3">
+        <v>0.52354000000000001</v>
+      </c>
+      <c r="AP3">
+        <v>0.52671999999999997</v>
+      </c>
+      <c r="AQ3">
+        <v>0.54510000000000003</v>
+      </c>
+      <c r="AR3">
+        <v>0.51248000000000005</v>
+      </c>
+      <c r="AS3">
+        <v>0.52566000000000002</v>
+      </c>
+      <c r="AT3">
+        <v>0.54712000000000005</v>
+      </c>
+      <c r="AU3">
+        <v>0.59031999999999996</v>
+      </c>
+      <c r="AV3">
+        <v>0.53781999999999996</v>
+      </c>
+      <c r="AW3">
+        <v>0.55342000000000002</v>
+      </c>
+      <c r="AX3">
+        <v>0.56740000000000002</v>
+      </c>
+      <c r="AY3">
+        <v>0.55474000000000001</v>
+      </c>
+      <c r="AZ3">
+        <v>0.53461999999999998</v>
+      </c>
+      <c r="BA3">
+        <v>0.51858000000000004</v>
+      </c>
+      <c r="BB3">
+        <v>0.53988000000000003</v>
+      </c>
+      <c r="BC3">
+        <v>0.56252000000000002</v>
+      </c>
+      <c r="BD3">
+        <v>0.51783999999999997</v>
+      </c>
+      <c r="BE3">
+        <v>0.53298000000000001</v>
+      </c>
+      <c r="BF3">
+        <v>0.54374</v>
+      </c>
+      <c r="BG3">
+        <v>0.55271999999999999</v>
+      </c>
+      <c r="BH3">
+        <v>0.51803999999999994</v>
+      </c>
+      <c r="BI3">
+        <v>0.51241999999999999</v>
+      </c>
+      <c r="BJ3">
+        <v>0.52849999999999997</v>
+      </c>
+      <c r="BK3">
+        <v>0.53271999999999997</v>
+      </c>
+      <c r="BL3">
+        <v>0.52990000000000004</v>
+      </c>
+      <c r="BM3">
+        <v>0.54476000000000002</v>
+      </c>
+      <c r="BN3">
+        <v>0.55359999999999998</v>
+      </c>
+      <c r="BO3">
+        <v>0.54166000000000003</v>
+      </c>
+      <c r="BP3">
+        <v>0.50539999999999996</v>
+      </c>
+      <c r="BQ3">
+        <v>0.54796</v>
+      </c>
+      <c r="BR3">
+        <v>0.54720000000000002</v>
+      </c>
+      <c r="BS3">
+        <v>0.55062</v>
+      </c>
+      <c r="BT3">
+        <v>0.55923999999999996</v>
+      </c>
+      <c r="BU3">
+        <v>0.55935999999999997</v>
+      </c>
+      <c r="BV3">
+        <v>0.56437999999999999</v>
+      </c>
+      <c r="BW3">
+        <v>0.54091999999999996</v>
+      </c>
+      <c r="BX3">
+        <v>0.55279999999999996</v>
+      </c>
+      <c r="BY3">
+        <v>0.55189999999999995</v>
+      </c>
+      <c r="BZ3">
+        <v>0.53361999999999998</v>
+      </c>
+      <c r="CA3">
+        <v>0.55471999999999999</v>
+      </c>
+      <c r="CB3">
+        <v>0.58543999999999996</v>
+      </c>
+      <c r="CC3">
+        <v>0.52749999999999997</v>
+      </c>
+      <c r="CD3">
+        <v>0.53678000000000003</v>
+      </c>
+      <c r="CE3">
+        <v>0.51658000000000004</v>
+      </c>
+      <c r="CF3">
+        <v>0.53522000000000003</v>
+      </c>
+      <c r="CG3">
+        <v>0.55188000000000004</v>
+      </c>
+      <c r="CH3">
+        <v>0.53</v>
+      </c>
+      <c r="CI3">
+        <v>0.55376000000000003</v>
+      </c>
+      <c r="CJ3">
+        <v>0.56233999999999995</v>
+      </c>
+      <c r="CK3">
+        <v>0.55998000000000003</v>
+      </c>
+      <c r="CL3">
+        <v>0.54518</v>
+      </c>
+      <c r="CM3">
+        <v>0.53144000000000002</v>
+      </c>
+      <c r="CN3">
+        <v>0.53256000000000003</v>
+      </c>
+      <c r="CO3">
+        <v>0.52424000000000004</v>
+      </c>
+      <c r="CP3">
+        <v>0.50009999999999999</v>
+      </c>
+      <c r="CQ3">
+        <v>0.55359999999999998</v>
+      </c>
+      <c r="CR3">
+        <v>0.54993999999999998</v>
+      </c>
+      <c r="CS3">
+        <v>0.52305999999999997</v>
+      </c>
+      <c r="CT3">
+        <v>0.54964000000000002</v>
+      </c>
+      <c r="CU3">
+        <v>0.54988000000000004</v>
+      </c>
+      <c r="CV3">
+        <v>0.53834000000000004</v>
+      </c>
+      <c r="CW3">
+        <v>0.53986240000000008</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>0.50882000000000005</v>
+      </c>
+      <c r="B4">
+        <v>0.51527999999999996</v>
+      </c>
+      <c r="C4">
+        <v>0.49303999999999998</v>
+      </c>
+      <c r="D4">
+        <v>0.55420000000000003</v>
+      </c>
+      <c r="E4">
+        <v>0.52605999999999997</v>
+      </c>
+      <c r="F4">
+        <v>0.51168000000000002</v>
+      </c>
+      <c r="G4">
+        <v>0.52559999999999996</v>
+      </c>
+      <c r="H4">
+        <v>0.53469999999999995</v>
+      </c>
+      <c r="I4">
+        <v>0.50527999999999995</v>
+      </c>
+      <c r="J4">
+        <v>0.52183999999999997</v>
+      </c>
+      <c r="K4">
+        <v>0.48755999999999999</v>
+      </c>
+      <c r="L4">
+        <v>0.51476</v>
+      </c>
+      <c r="M4">
+        <v>0.51798</v>
+      </c>
+      <c r="N4">
+        <v>0.52024000000000004</v>
+      </c>
+      <c r="O4">
+        <v>0.53964000000000001</v>
+      </c>
+      <c r="P4">
+        <v>0.54918</v>
+      </c>
+      <c r="Q4">
+        <v>0.54620000000000002</v>
+      </c>
+      <c r="R4">
+        <v>0.53659999999999997</v>
+      </c>
+      <c r="S4">
+        <v>0.51734000000000002</v>
+      </c>
+      <c r="T4">
+        <v>0.54759999999999998</v>
+      </c>
+      <c r="U4">
+        <v>0.51517999999999997</v>
+      </c>
+      <c r="V4">
+        <v>0.54017999999999999</v>
+      </c>
+      <c r="W4">
+        <v>0.52685999999999999</v>
+      </c>
+      <c r="X4">
+        <v>0.50653999999999999</v>
+      </c>
+      <c r="Y4">
+        <v>0.53954000000000002</v>
+      </c>
+      <c r="Z4">
+        <v>0.54374</v>
+      </c>
+      <c r="AA4">
+        <v>0.51368000000000003</v>
+      </c>
+      <c r="AB4">
+        <v>0.52681999999999995</v>
+      </c>
+      <c r="AC4">
+        <v>0.54583999999999999</v>
+      </c>
+      <c r="AD4">
+        <v>0.54371999999999998</v>
+      </c>
+      <c r="AE4">
+        <v>0.51348000000000005</v>
+      </c>
+      <c r="AF4">
+        <v>0.50182000000000004</v>
+      </c>
+      <c r="AG4">
+        <v>0.52115999999999996</v>
+      </c>
+      <c r="AH4">
+        <v>0.52527999999999997</v>
+      </c>
+      <c r="AI4">
+        <v>0.54490000000000005</v>
+      </c>
+      <c r="AJ4">
+        <v>0.50541999999999998</v>
+      </c>
+      <c r="AK4">
+        <v>0.52115999999999996</v>
+      </c>
+      <c r="AL4">
+        <v>0.52456000000000003</v>
+      </c>
+      <c r="AM4">
+        <v>0.53361999999999998</v>
+      </c>
+      <c r="AN4">
+        <v>0.53978000000000004</v>
+      </c>
+      <c r="AO4">
+        <v>0.53044000000000002</v>
+      </c>
+      <c r="AP4">
+        <v>0.54059999999999997</v>
+      </c>
+      <c r="AQ4">
+        <v>0.54912000000000005</v>
+      </c>
+      <c r="AR4">
+        <v>0.56408000000000003</v>
+      </c>
+      <c r="AS4">
+        <v>0.53208</v>
+      </c>
+      <c r="AT4">
+        <v>0.53103999999999996</v>
+      </c>
+      <c r="AU4">
+        <v>0.48454000000000003</v>
+      </c>
+      <c r="AV4">
+        <v>0.53166000000000002</v>
+      </c>
+      <c r="AW4">
+        <v>0.55969999999999998</v>
+      </c>
+      <c r="AX4">
+        <v>0.52481999999999995</v>
+      </c>
+      <c r="AY4">
+        <v>0.52525999999999995</v>
+      </c>
+      <c r="AZ4">
+        <v>0.51563999999999999</v>
+      </c>
+      <c r="BA4">
+        <v>0.53998000000000002</v>
+      </c>
+      <c r="BB4">
+        <v>0.51026000000000005</v>
+      </c>
+      <c r="BC4">
+        <v>0.52085999999999999</v>
+      </c>
+      <c r="BD4">
+        <v>0.501</v>
+      </c>
+      <c r="BE4">
+        <v>0.53771999999999998</v>
+      </c>
+      <c r="BF4">
+        <v>0.49956</v>
+      </c>
+      <c r="BG4">
+        <v>0.50960000000000005</v>
+      </c>
+      <c r="BH4">
+        <v>0.54039999999999999</v>
+      </c>
+      <c r="BI4">
+        <v>0.52669999999999995</v>
+      </c>
+      <c r="BJ4">
+        <v>0.52</v>
+      </c>
+      <c r="BK4">
+        <v>0.54781999999999997</v>
+      </c>
+      <c r="BL4">
+        <v>0.53424000000000005</v>
+      </c>
+      <c r="BM4">
+        <v>0.50749999999999995</v>
+      </c>
+      <c r="BN4">
+        <v>0.51017999999999997</v>
+      </c>
+      <c r="BO4">
+        <v>0.52846000000000004</v>
+      </c>
+      <c r="BP4">
+        <v>0.50602000000000003</v>
+      </c>
+      <c r="BQ4">
+        <v>0.48809999999999998</v>
+      </c>
+      <c r="BR4">
+        <v>0.51056000000000001</v>
+      </c>
+      <c r="BS4">
+        <v>0.54645999999999995</v>
+      </c>
+      <c r="BT4">
+        <v>0.52776000000000001</v>
+      </c>
+      <c r="BU4">
+        <v>0.52507999999999999</v>
+      </c>
+      <c r="BV4">
+        <v>0.50912000000000002</v>
+      </c>
+      <c r="BW4">
+        <v>0.51051999999999997</v>
+      </c>
+      <c r="BX4">
+        <v>0.48765999999999998</v>
+      </c>
+      <c r="BY4">
+        <v>0.52791999999999994</v>
+      </c>
+      <c r="BZ4">
+        <v>0.54769999999999996</v>
+      </c>
+      <c r="CA4">
+        <v>0.53268000000000004</v>
+      </c>
+      <c r="CB4">
+        <v>0.54737999999999998</v>
+      </c>
+      <c r="CC4">
+        <v>0.52425999999999995</v>
+      </c>
+      <c r="CD4">
+        <v>0.50544</v>
+      </c>
+      <c r="CE4">
+        <v>0.54991999999999996</v>
+      </c>
+      <c r="CF4">
+        <v>0.53069999999999995</v>
+      </c>
+      <c r="CG4">
+        <v>0.53225999999999996</v>
+      </c>
+      <c r="CH4">
+        <v>0.53125999999999995</v>
+      </c>
+      <c r="CI4">
+        <v>0.55311999999999995</v>
+      </c>
+      <c r="CJ4">
+        <v>0.51058000000000003</v>
+      </c>
+      <c r="CK4">
+        <v>0.50483999999999996</v>
+      </c>
+      <c r="CL4">
+        <v>0.54376000000000002</v>
+      </c>
+      <c r="CM4">
+        <v>0.5141</v>
+      </c>
+      <c r="CN4">
+        <v>0.50883999999999996</v>
+      </c>
+      <c r="CO4">
+        <v>0.53976000000000002</v>
+      </c>
+      <c r="CP4">
+        <v>0.52405999999999997</v>
+      </c>
+      <c r="CQ4">
+        <v>0.53232000000000002</v>
+      </c>
+      <c r="CR4">
+        <v>0.51497999999999999</v>
+      </c>
+      <c r="CS4">
+        <v>0.50982000000000005</v>
+      </c>
+      <c r="CT4">
+        <v>0.54969999999999997</v>
+      </c>
+      <c r="CU4">
+        <v>0.52971999999999997</v>
+      </c>
+      <c r="CV4">
+        <v>0.53932000000000002</v>
+      </c>
+      <c r="CW4">
+        <v>0.52545859999999989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.50417999999999996</v>
+      </c>
+      <c r="B5">
+        <v>0.52942</v>
+      </c>
+      <c r="C5">
+        <v>0.50956000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.52727999999999997</v>
+      </c>
+      <c r="E5">
+        <v>0.50617999999999996</v>
+      </c>
+      <c r="F5">
+        <v>0.51205999999999996</v>
+      </c>
+      <c r="G5">
+        <v>0.51371999999999995</v>
+      </c>
+      <c r="H5">
+        <v>0.50593999999999995</v>
+      </c>
+      <c r="I5">
+        <v>0.48470000000000002</v>
+      </c>
+      <c r="J5">
+        <v>0.50585999999999998</v>
+      </c>
+      <c r="K5">
+        <v>0.50685999999999998</v>
+      </c>
+      <c r="L5">
+        <v>0.51315999999999995</v>
+      </c>
+      <c r="M5">
+        <v>0.52383999999999997</v>
+      </c>
+      <c r="N5">
+        <v>0.49893999999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.49786000000000002</v>
+      </c>
+      <c r="P5">
+        <v>0.53264</v>
+      </c>
+      <c r="Q5">
+        <v>0.51293999999999995</v>
+      </c>
+      <c r="R5">
+        <v>0.49628</v>
+      </c>
+      <c r="S5">
+        <v>0.48086000000000001</v>
+      </c>
+      <c r="T5">
+        <v>0.50378000000000001</v>
+      </c>
+      <c r="U5">
+        <v>0.52636000000000005</v>
+      </c>
+      <c r="V5">
+        <v>0.54415999999999998</v>
+      </c>
+      <c r="W5">
+        <v>0.51883999999999997</v>
+      </c>
+      <c r="X5">
+        <v>0.50004000000000004</v>
+      </c>
+      <c r="Y5">
+        <v>0.51383999999999996</v>
+      </c>
+      <c r="Z5">
+        <v>0.51834000000000002</v>
+      </c>
+      <c r="AA5">
+        <v>0.52358000000000005</v>
+      </c>
+      <c r="AB5">
+        <v>0.50997999999999999</v>
+      </c>
+      <c r="AC5">
+        <v>0.51114000000000004</v>
+      </c>
+      <c r="AD5">
+        <v>0.47488000000000002</v>
+      </c>
+      <c r="AE5">
+        <v>0.52425999999999995</v>
+      </c>
+      <c r="AF5">
+        <v>0.53293999999999997</v>
+      </c>
+      <c r="AG5">
+        <v>0.50927999999999995</v>
+      </c>
+      <c r="AH5">
+        <v>0.51041999999999998</v>
+      </c>
+      <c r="AI5">
+        <v>0.50731999999999999</v>
+      </c>
+      <c r="AJ5">
+        <v>0.50304000000000004</v>
+      </c>
+      <c r="AK5">
+        <v>0.51722000000000001</v>
+      </c>
+      <c r="AL5">
+        <v>0.52780000000000005</v>
+      </c>
+      <c r="AM5">
+        <v>0.50138000000000005</v>
+      </c>
+      <c r="AN5">
+        <v>0.49093999999999999</v>
+      </c>
+      <c r="AO5">
+        <v>0.48974000000000001</v>
+      </c>
+      <c r="AP5">
+        <v>0.48358000000000001</v>
+      </c>
+      <c r="AQ5">
+        <v>0.51566000000000001</v>
+      </c>
+      <c r="AR5">
+        <v>0.49437999999999999</v>
+      </c>
+      <c r="AS5">
+        <v>0.49046000000000001</v>
+      </c>
+      <c r="AT5">
+        <v>0.53508</v>
+      </c>
+      <c r="AU5">
+        <v>0.52193999999999996</v>
+      </c>
+      <c r="AV5">
+        <v>0.52125999999999995</v>
+      </c>
+      <c r="AW5">
+        <v>0.51761999999999997</v>
+      </c>
+      <c r="AX5">
+        <v>0.52314000000000005</v>
+      </c>
+      <c r="AY5">
+        <v>0.49803999999999998</v>
+      </c>
+      <c r="AZ5">
+        <v>0.50861999999999996</v>
+      </c>
+      <c r="BA5">
+        <v>0.49609999999999999</v>
+      </c>
+      <c r="BB5">
         <v>0.50758000000000003</v>
       </c>
-      <c r="B4">
-        <v>0.55664000000000002</v>
-      </c>
-      <c r="C4">
-        <v>0.53211000000000008</v>
+      <c r="BC5">
+        <v>0.50893999999999995</v>
+      </c>
+      <c r="BD5">
+        <v>0.48771999999999999</v>
+      </c>
+      <c r="BE5">
+        <v>0.49731999999999998</v>
+      </c>
+      <c r="BF5">
+        <v>0.49264000000000002</v>
+      </c>
+      <c r="BG5">
+        <v>0.52068000000000003</v>
+      </c>
+      <c r="BH5">
+        <v>0.47986000000000001</v>
+      </c>
+      <c r="BI5">
+        <v>0.49908000000000002</v>
+      </c>
+      <c r="BJ5">
+        <v>0.49802000000000002</v>
+      </c>
+      <c r="BK5">
+        <v>0.53178000000000003</v>
+      </c>
+      <c r="BL5">
+        <v>0.52647999999999995</v>
+      </c>
+      <c r="BM5">
+        <v>0.50885999999999998</v>
+      </c>
+      <c r="BN5">
+        <v>0.50770000000000004</v>
+      </c>
+      <c r="BO5">
+        <v>0.52102000000000004</v>
+      </c>
+      <c r="BP5">
+        <v>0.51948000000000005</v>
+      </c>
+      <c r="BQ5">
+        <v>0.51817999999999997</v>
+      </c>
+      <c r="BR5">
+        <v>0.53622000000000003</v>
+      </c>
+      <c r="BS5">
+        <v>0.49847999999999998</v>
+      </c>
+      <c r="BT5">
+        <v>0.52758000000000005</v>
+      </c>
+      <c r="BU5">
+        <v>0.53539999999999999</v>
+      </c>
+      <c r="BV5">
+        <v>0.50727999999999995</v>
+      </c>
+      <c r="BW5">
+        <v>0.48182000000000003</v>
+      </c>
+      <c r="BX5">
+        <v>0.51324000000000003</v>
+      </c>
+      <c r="BY5">
+        <v>0.50253999999999999</v>
+      </c>
+      <c r="BZ5">
+        <v>0.50138000000000005</v>
+      </c>
+      <c r="CA5">
+        <v>0.49536000000000002</v>
+      </c>
+      <c r="CB5">
+        <v>0.52539999999999998</v>
+      </c>
+      <c r="CC5">
+        <v>0.48577999999999999</v>
+      </c>
+      <c r="CD5">
+        <v>0.52105999999999997</v>
+      </c>
+      <c r="CE5">
+        <v>0.52754000000000001</v>
+      </c>
+      <c r="CF5">
+        <v>0.49547999999999998</v>
+      </c>
+      <c r="CG5">
+        <v>0.54190000000000005</v>
+      </c>
+      <c r="CH5">
+        <v>0.50456000000000001</v>
+      </c>
+      <c r="CI5">
+        <v>0.53486</v>
+      </c>
+      <c r="CJ5">
+        <v>0.52266000000000001</v>
+      </c>
+      <c r="CK5">
+        <v>0.52993999999999997</v>
+      </c>
+      <c r="CL5">
+        <v>0.51141999999999999</v>
+      </c>
+      <c r="CM5">
+        <v>0.47443999999999997</v>
+      </c>
+      <c r="CN5">
+        <v>0.48496</v>
+      </c>
+      <c r="CO5">
+        <v>0.50638000000000005</v>
+      </c>
+      <c r="CP5">
+        <v>0.50961999999999996</v>
+      </c>
+      <c r="CQ5">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="CR5">
+        <v>0.50634000000000001</v>
+      </c>
+      <c r="CS5">
+        <v>0.51422000000000001</v>
+      </c>
+      <c r="CT5">
+        <v>0.52690000000000003</v>
+      </c>
+      <c r="CU5">
+        <v>0.52205999999999997</v>
+      </c>
+      <c r="CV5">
+        <v>0.50975999999999999</v>
+      </c>
+      <c r="CW5">
+        <v>0.51013360000000008</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>0.51290000000000002</v>
-      </c>
-      <c r="B5">
-        <v>0.52003999999999995</v>
-      </c>
-      <c r="C5">
-        <v>0.51646999999999998</v>
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.46873999999999999</v>
+      </c>
+      <c r="B6">
+        <v>0.48108000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.49968000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.47204000000000002</v>
+      </c>
+      <c r="E6">
+        <v>0.51619999999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.50641999999999998</v>
+      </c>
+      <c r="G6">
+        <v>0.49177999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.50105999999999995</v>
+      </c>
+      <c r="I6">
+        <v>0.50514000000000003</v>
+      </c>
+      <c r="J6">
+        <v>0.49430000000000002</v>
+      </c>
+      <c r="K6">
+        <v>0.51207999999999998</v>
+      </c>
+      <c r="L6">
+        <v>0.50585999999999998</v>
+      </c>
+      <c r="M6">
+        <v>0.48124</v>
+      </c>
+      <c r="N6">
+        <v>0.47742000000000001</v>
+      </c>
+      <c r="O6">
+        <v>0.50439999999999996</v>
+      </c>
+      <c r="P6">
+        <v>0.48354000000000003</v>
+      </c>
+      <c r="Q6">
+        <v>0.51751999999999998</v>
+      </c>
+      <c r="R6">
+        <v>0.49353999999999998</v>
+      </c>
+      <c r="S6">
+        <v>0.49586000000000002</v>
+      </c>
+      <c r="T6">
+        <v>0.52932000000000001</v>
+      </c>
+      <c r="U6">
+        <v>0.49787999999999999</v>
+      </c>
+      <c r="V6">
+        <v>0.49502000000000002</v>
+      </c>
+      <c r="W6">
+        <v>0.51607999999999998</v>
+      </c>
+      <c r="X6">
+        <v>0.52802000000000004</v>
+      </c>
+      <c r="Y6">
+        <v>0.51119999999999999</v>
+      </c>
+      <c r="Z6">
+        <v>0.50368000000000002</v>
+      </c>
+      <c r="AA6">
+        <v>0.48555999999999999</v>
+      </c>
+      <c r="AB6">
+        <v>0.52422000000000002</v>
+      </c>
+      <c r="AC6">
+        <v>0.51839999999999997</v>
+      </c>
+      <c r="AD6">
+        <v>0.48774000000000001</v>
+      </c>
+      <c r="AE6">
+        <v>0.49264000000000002</v>
+      </c>
+      <c r="AF6">
+        <v>0.50348000000000004</v>
+      </c>
+      <c r="AG6">
+        <v>0.47076000000000001</v>
+      </c>
+      <c r="AH6">
+        <v>0.48877999999999999</v>
+      </c>
+      <c r="AI6">
+        <v>0.51151999999999997</v>
+      </c>
+      <c r="AJ6">
+        <v>0.49584</v>
+      </c>
+      <c r="AK6">
+        <v>0.48965999999999998</v>
+      </c>
+      <c r="AL6">
+        <v>0.48562</v>
+      </c>
+      <c r="AM6">
+        <v>0.50266</v>
+      </c>
+      <c r="AN6">
+        <v>0.49746000000000001</v>
+      </c>
+      <c r="AO6">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="AP6">
+        <v>0.49581999999999998</v>
+      </c>
+      <c r="AQ6">
+        <v>0.48058000000000001</v>
+      </c>
+      <c r="AR6">
+        <v>0.52739999999999998</v>
+      </c>
+      <c r="AS6">
+        <v>0.48709999999999998</v>
+      </c>
+      <c r="AT6">
+        <v>0.51202000000000003</v>
+      </c>
+      <c r="AU6">
+        <v>0.51148000000000005</v>
+      </c>
+      <c r="AV6">
+        <v>0.48327999999999999</v>
+      </c>
+      <c r="AW6">
+        <v>0.49371999999999999</v>
+      </c>
+      <c r="AX6">
+        <v>0.51580000000000004</v>
+      </c>
+      <c r="AY6">
+        <v>0.52791999999999994</v>
+      </c>
+      <c r="AZ6">
+        <v>0.50748000000000004</v>
+      </c>
+      <c r="BA6">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="BB6">
+        <v>0.46472000000000002</v>
+      </c>
+      <c r="BC6">
+        <v>0.51380000000000003</v>
+      </c>
+      <c r="BD6">
+        <v>0.52085999999999999</v>
+      </c>
+      <c r="BE6">
+        <v>0.49956</v>
+      </c>
+      <c r="BF6">
+        <v>0.47589999999999999</v>
+      </c>
+      <c r="BG6">
+        <v>0.50209999999999999</v>
+      </c>
+      <c r="BH6">
+        <v>0.52346000000000004</v>
+      </c>
+      <c r="BI6">
+        <v>0.51478000000000002</v>
+      </c>
+      <c r="BJ6">
+        <v>0.50082000000000004</v>
+      </c>
+      <c r="BK6">
+        <v>0.48549999999999999</v>
+      </c>
+      <c r="BL6">
+        <v>0.48518</v>
+      </c>
+      <c r="BM6">
+        <v>0.47088000000000002</v>
+      </c>
+      <c r="BN6">
+        <v>0.51241999999999999</v>
+      </c>
+      <c r="BO6">
+        <v>0.52322000000000002</v>
+      </c>
+      <c r="BP6">
+        <v>0.47898000000000002</v>
+      </c>
+      <c r="BQ6">
+        <v>0.50383999999999995</v>
+      </c>
+      <c r="BR6">
+        <v>0.49637999999999999</v>
+      </c>
+      <c r="BS6">
+        <v>0.48715999999999998</v>
+      </c>
+      <c r="BT6">
+        <v>0.48942000000000002</v>
+      </c>
+      <c r="BU6">
+        <v>0.5292</v>
+      </c>
+      <c r="BV6">
+        <v>0.49196000000000001</v>
+      </c>
+      <c r="BW6">
+        <v>0.45632</v>
+      </c>
+      <c r="BX6">
+        <v>0.50368000000000002</v>
+      </c>
+      <c r="BY6">
+        <v>0.49969999999999998</v>
+      </c>
+      <c r="BZ6">
+        <v>0.50736000000000003</v>
+      </c>
+      <c r="CA6">
+        <v>0.52707999999999999</v>
+      </c>
+      <c r="CB6">
+        <v>0.49678</v>
+      </c>
+      <c r="CC6">
+        <v>0.49359999999999998</v>
+      </c>
+      <c r="CD6">
+        <v>0.50065999999999999</v>
+      </c>
+      <c r="CE6">
+        <v>0.48664000000000002</v>
+      </c>
+      <c r="CF6">
+        <v>0.47874</v>
+      </c>
+      <c r="CG6">
+        <v>0.49975999999999998</v>
+      </c>
+      <c r="CH6">
+        <v>0.51048000000000004</v>
+      </c>
+      <c r="CI6">
+        <v>0.50595999999999997</v>
+      </c>
+      <c r="CJ6">
+        <v>0.50378000000000001</v>
+      </c>
+      <c r="CK6">
+        <v>0.51954</v>
+      </c>
+      <c r="CL6">
+        <v>0.51227999999999996</v>
+      </c>
+      <c r="CM6">
+        <v>0.54186000000000001</v>
+      </c>
+      <c r="CN6">
+        <v>0.50668000000000002</v>
+      </c>
+      <c r="CO6">
+        <v>0.50227999999999995</v>
+      </c>
+      <c r="CP6">
+        <v>0.50331999999999999</v>
+      </c>
+      <c r="CQ6">
+        <v>0.48058000000000001</v>
+      </c>
+      <c r="CR6">
+        <v>0.51919999999999999</v>
+      </c>
+      <c r="CS6">
+        <v>0.46650000000000003</v>
+      </c>
+      <c r="CT6">
+        <v>0.51241999999999999</v>
+      </c>
+      <c r="CU6">
+        <v>0.50375999999999999</v>
+      </c>
+      <c r="CV6">
+        <v>0.49453999999999998</v>
+      </c>
+      <c r="CW6">
+        <v>0.50020680000000017</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.48164000000000001</v>
-      </c>
-      <c r="B6">
-        <v>0.51663999999999999</v>
-      </c>
-      <c r="C6">
-        <v>0.49914000000000003</v>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.48504000000000003</v>
+      </c>
+      <c r="B7">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="C7">
+        <v>0.4859</v>
+      </c>
+      <c r="D7">
+        <v>0.51305999999999996</v>
+      </c>
+      <c r="E7">
+        <v>0.47567999999999999</v>
+      </c>
+      <c r="F7">
+        <v>0.45673999999999998</v>
+      </c>
+      <c r="G7">
+        <v>0.48709999999999998</v>
+      </c>
+      <c r="H7">
+        <v>0.50838000000000005</v>
+      </c>
+      <c r="I7">
+        <v>0.48980000000000001</v>
+      </c>
+      <c r="J7">
+        <v>0.49187999999999998</v>
+      </c>
+      <c r="K7">
+        <v>0.49503999999999998</v>
+      </c>
+      <c r="L7">
+        <v>0.50871999999999995</v>
+      </c>
+      <c r="M7">
+        <v>0.50922000000000001</v>
+      </c>
+      <c r="N7">
+        <v>0.49192000000000002</v>
+      </c>
+      <c r="O7">
+        <v>0.50782000000000005</v>
+      </c>
+      <c r="P7">
+        <v>0.52293999999999996</v>
+      </c>
+      <c r="Q7">
+        <v>0.49808000000000002</v>
+      </c>
+      <c r="R7">
+        <v>0.50795999999999997</v>
+      </c>
+      <c r="S7">
+        <v>0.48653999999999997</v>
+      </c>
+      <c r="T7">
+        <v>0.4839</v>
+      </c>
+      <c r="U7">
+        <v>0.48254000000000002</v>
+      </c>
+      <c r="V7">
+        <v>0.47460000000000002</v>
+      </c>
+      <c r="W7">
+        <v>0.49571999999999999</v>
+      </c>
+      <c r="X7">
+        <v>0.49634</v>
+      </c>
+      <c r="Y7">
+        <v>0.47598000000000001</v>
+      </c>
+      <c r="Z7">
+        <v>0.51139999999999997</v>
+      </c>
+      <c r="AA7">
+        <v>0.49236000000000002</v>
+      </c>
+      <c r="AB7">
+        <v>0.51361999999999997</v>
+      </c>
+      <c r="AC7">
+        <v>0.48458000000000001</v>
+      </c>
+      <c r="AD7">
+        <v>0.52983999999999998</v>
+      </c>
+      <c r="AE7">
+        <v>0.50704000000000005</v>
+      </c>
+      <c r="AF7">
+        <v>0.53766000000000003</v>
+      </c>
+      <c r="AG7">
+        <v>0.48254000000000002</v>
+      </c>
+      <c r="AH7">
+        <v>0.50405999999999995</v>
+      </c>
+      <c r="AI7">
+        <v>0.50885999999999998</v>
+      </c>
+      <c r="AJ7">
+        <v>0.46722000000000002</v>
+      </c>
+      <c r="AK7">
+        <v>0.48443999999999998</v>
+      </c>
+      <c r="AL7">
+        <v>0.51266</v>
+      </c>
+      <c r="AM7">
+        <v>0.49330000000000002</v>
+      </c>
+      <c r="AN7">
+        <v>0.47742000000000001</v>
+      </c>
+      <c r="AO7">
+        <v>0.49556</v>
+      </c>
+      <c r="AP7">
+        <v>0.51549999999999996</v>
+      </c>
+      <c r="AQ7">
+        <v>0.49674000000000001</v>
+      </c>
+      <c r="AR7">
+        <v>0.48098000000000002</v>
+      </c>
+      <c r="AS7">
+        <v>0.49787999999999999</v>
+      </c>
+      <c r="AT7">
+        <v>0.49991999999999998</v>
+      </c>
+      <c r="AU7">
+        <v>0.52749999999999997</v>
+      </c>
+      <c r="AV7">
+        <v>0.51517999999999997</v>
+      </c>
+      <c r="AW7">
+        <v>0.49358000000000002</v>
+      </c>
+      <c r="AX7">
+        <v>0.51373999999999997</v>
+      </c>
+      <c r="AY7">
+        <v>0.49297999999999997</v>
+      </c>
+      <c r="AZ7">
+        <v>0.47292000000000001</v>
+      </c>
+      <c r="BA7">
+        <v>0.51180000000000003</v>
+      </c>
+      <c r="BB7">
+        <v>0.51502000000000003</v>
+      </c>
+      <c r="BC7">
+        <v>0.4859</v>
+      </c>
+      <c r="BD7">
+        <v>0.50275999999999998</v>
+      </c>
+      <c r="BE7">
+        <v>0.48727999999999999</v>
+      </c>
+      <c r="BF7">
+        <v>0.49070000000000003</v>
+      </c>
+      <c r="BG7">
+        <v>0.50182000000000004</v>
+      </c>
+      <c r="BH7">
+        <v>0.52068000000000003</v>
+      </c>
+      <c r="BI7">
+        <v>0.50151999999999997</v>
+      </c>
+      <c r="BJ7">
+        <v>0.47696</v>
+      </c>
+      <c r="BK7">
+        <v>0.45706000000000002</v>
+      </c>
+      <c r="BL7">
+        <v>0.50817000000000001</v>
+      </c>
+      <c r="BM7">
+        <v>0.47755999999999998</v>
+      </c>
+      <c r="BN7">
+        <v>0.47045999999999999</v>
+      </c>
+      <c r="BO7">
+        <v>0.50426000000000004</v>
+      </c>
+      <c r="BP7">
+        <v>0.48633999999999999</v>
+      </c>
+      <c r="BQ7">
+        <v>0.48542000000000002</v>
+      </c>
+      <c r="BR7">
+        <v>0.49136000000000002</v>
+      </c>
+      <c r="BS7">
+        <v>0.51022000000000001</v>
+      </c>
+      <c r="BT7">
+        <v>0.47464000000000001</v>
+      </c>
+      <c r="BU7">
+        <v>0.47292000000000001</v>
+      </c>
+      <c r="BV7">
+        <v>0.48421999999999998</v>
+      </c>
+      <c r="BW7">
+        <v>0.46739999999999998</v>
+      </c>
+      <c r="BX7">
+        <v>0.49693999999999999</v>
+      </c>
+      <c r="BY7">
+        <v>0.53569999999999995</v>
+      </c>
+      <c r="BZ7">
+        <v>0.49375999999999998</v>
+      </c>
+      <c r="CA7">
+        <v>0.49862000000000001</v>
+      </c>
+      <c r="CB7">
+        <v>0.49434</v>
+      </c>
+      <c r="CC7">
+        <v>0.48614000000000002</v>
+      </c>
+      <c r="CD7">
+        <v>0.46063999999999999</v>
+      </c>
+      <c r="CE7">
+        <v>0.52263999999999999</v>
+      </c>
+      <c r="CF7">
+        <v>0.50251999999999997</v>
+      </c>
+      <c r="CG7">
+        <v>0.51232</v>
+      </c>
+      <c r="CH7">
+        <v>0.49552000000000002</v>
+      </c>
+      <c r="CI7">
+        <v>0.50382000000000005</v>
+      </c>
+      <c r="CJ7">
+        <v>0.48462</v>
+      </c>
+      <c r="CK7">
+        <v>0.50234000000000001</v>
+      </c>
+      <c r="CL7">
+        <v>0.50141999999999998</v>
+      </c>
+      <c r="CM7">
+        <v>0.49356</v>
+      </c>
+      <c r="CN7">
+        <v>0.49471999999999999</v>
+      </c>
+      <c r="CO7">
+        <v>0.49393999999999999</v>
+      </c>
+      <c r="CP7">
+        <v>0.52090000000000003</v>
+      </c>
+      <c r="CQ7">
+        <v>0.47032000000000002</v>
+      </c>
+      <c r="CR7">
+        <v>0.50390000000000001</v>
+      </c>
+      <c r="CS7">
+        <v>0.48546</v>
+      </c>
+      <c r="CT7">
+        <v>0.45569999999999999</v>
+      </c>
+      <c r="CU7">
+        <v>0.49243999999999999</v>
+      </c>
+      <c r="CV7">
+        <v>0.48709999999999998</v>
+      </c>
+      <c r="CW7">
+        <v>0.49506229999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.48015999999999998</v>
-      </c>
-      <c r="B7">
-        <v>0.48386000000000001</v>
-      </c>
-      <c r="C7">
-        <v>0.48200999999999999</v>
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.50073999999999996</v>
+      </c>
+      <c r="B8">
+        <v>0.48465999999999998</v>
+      </c>
+      <c r="C8">
+        <v>0.50390000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.51424000000000003</v>
+      </c>
+      <c r="E8">
+        <v>0.47154000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.50392000000000003</v>
+      </c>
+      <c r="G8">
+        <v>0.46110000000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.47838000000000003</v>
+      </c>
+      <c r="I8">
+        <v>0.49225999999999998</v>
+      </c>
+      <c r="J8">
+        <v>0.47327999999999998</v>
+      </c>
+      <c r="K8">
+        <v>0.48868</v>
+      </c>
+      <c r="L8">
+        <v>0.49681999999999998</v>
+      </c>
+      <c r="M8">
+        <v>0.50627999999999995</v>
+      </c>
+      <c r="N8">
+        <v>0.49321999999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.47101999999999999</v>
+      </c>
+      <c r="P8">
+        <v>0.48736000000000002</v>
+      </c>
+      <c r="Q8">
+        <v>0.48758000000000001</v>
+      </c>
+      <c r="R8">
+        <v>0.49625999999999998</v>
+      </c>
+      <c r="S8">
+        <v>0.49937999999999999</v>
+      </c>
+      <c r="T8">
+        <v>0.49934000000000001</v>
+      </c>
+      <c r="U8">
+        <v>0.49236000000000002</v>
+      </c>
+      <c r="V8">
+        <v>0.49086000000000002</v>
+      </c>
+      <c r="W8">
+        <v>0.50446000000000002</v>
+      </c>
+      <c r="X8">
+        <v>0.48464000000000002</v>
+      </c>
+      <c r="Y8">
+        <v>0.49102000000000001</v>
+      </c>
+      <c r="Z8">
+        <v>0.50739999999999996</v>
+      </c>
+      <c r="AA8">
+        <v>0.48974000000000001</v>
+      </c>
+      <c r="AB8">
+        <v>0.51214000000000004</v>
+      </c>
+      <c r="AC8">
+        <v>0.49691999999999997</v>
+      </c>
+      <c r="AD8">
+        <v>0.46901999999999999</v>
+      </c>
+      <c r="AE8">
+        <v>0.49831999999999999</v>
+      </c>
+      <c r="AF8">
+        <v>0.48418</v>
+      </c>
+      <c r="AG8">
+        <v>0.47937999999999997</v>
+      </c>
+      <c r="AH8">
+        <v>0.47543999999999997</v>
+      </c>
+      <c r="AI8">
+        <v>0.46001999999999998</v>
+      </c>
+      <c r="AJ8">
+        <v>0.48962</v>
+      </c>
+      <c r="AK8">
+        <v>0.47286</v>
+      </c>
+      <c r="AL8">
+        <v>0.49722</v>
+      </c>
+      <c r="AM8">
+        <v>0.49378</v>
+      </c>
+      <c r="AN8">
+        <v>0.49236000000000002</v>
+      </c>
+      <c r="AO8">
+        <v>0.48552000000000001</v>
+      </c>
+      <c r="AP8">
+        <v>0.48152</v>
+      </c>
+      <c r="AQ8">
+        <v>0.51998</v>
+      </c>
+      <c r="AR8">
+        <v>0.48010000000000003</v>
+      </c>
+      <c r="AS8">
+        <v>0.48409999999999997</v>
+      </c>
+      <c r="AT8">
+        <v>0.47814000000000001</v>
+      </c>
+      <c r="AU8">
+        <v>0.51053999999999999</v>
+      </c>
+      <c r="AV8">
+        <v>0.47527999999999998</v>
+      </c>
+      <c r="AW8">
+        <v>0.49903999999999998</v>
+      </c>
+      <c r="AX8">
+        <v>0.48836000000000002</v>
+      </c>
+      <c r="AY8">
+        <v>0.48858000000000001</v>
+      </c>
+      <c r="AZ8">
+        <v>0.47252</v>
+      </c>
+      <c r="BA8">
+        <v>0.48404000000000003</v>
+      </c>
+      <c r="BB8">
+        <v>0.50853999999999999</v>
+      </c>
+      <c r="BC8">
+        <v>0.43990000000000001</v>
+      </c>
+      <c r="BD8">
+        <v>0.50924000000000003</v>
+      </c>
+      <c r="BE8">
+        <v>0.4476</v>
+      </c>
+      <c r="BF8">
+        <v>0.499</v>
+      </c>
+      <c r="BG8">
+        <v>0.47286</v>
+      </c>
+      <c r="BH8">
+        <v>0.51597999999999999</v>
+      </c>
+      <c r="BI8">
+        <v>0.45622000000000001</v>
+      </c>
+      <c r="BJ8">
+        <v>0.46933999999999998</v>
+      </c>
+      <c r="BK8">
+        <v>0.48270000000000002</v>
+      </c>
+      <c r="BL8">
+        <v>0.48743999999999998</v>
+      </c>
+      <c r="BM8">
+        <v>0.47574</v>
+      </c>
+      <c r="BN8">
+        <v>0.51341999999999999</v>
+      </c>
+      <c r="BO8">
+        <v>0.49868000000000001</v>
+      </c>
+      <c r="BP8">
+        <v>0.47616000000000003</v>
+      </c>
+      <c r="BQ8">
+        <v>0.51402000000000003</v>
+      </c>
+      <c r="BR8">
+        <v>0.51456000000000002</v>
+      </c>
+      <c r="BS8">
+        <v>0.49647999999999998</v>
+      </c>
+      <c r="BT8">
+        <v>0.48036000000000001</v>
+      </c>
+      <c r="BU8">
+        <v>0.52315999999999996</v>
+      </c>
+      <c r="BV8">
+        <v>0.48803999999999997</v>
+      </c>
+      <c r="BW8">
+        <v>0.48577999999999999</v>
+      </c>
+      <c r="BX8">
+        <v>0.47145999999999999</v>
+      </c>
+      <c r="BY8">
+        <v>0.45707999999999999</v>
+      </c>
+      <c r="BZ8">
+        <v>0.52569999999999995</v>
+      </c>
+      <c r="CA8">
+        <v>0.49859999999999999</v>
+      </c>
+      <c r="CB8">
+        <v>0.47483999999999998</v>
+      </c>
+      <c r="CC8">
+        <v>0.49014000000000002</v>
+      </c>
+      <c r="CD8">
+        <v>0.46607999999999999</v>
+      </c>
+      <c r="CE8">
+        <v>0.4526</v>
+      </c>
+      <c r="CF8">
+        <v>0.48236000000000001</v>
+      </c>
+      <c r="CG8">
+        <v>0.48137999999999997</v>
+      </c>
+      <c r="CH8">
+        <v>0.50480000000000003</v>
+      </c>
+      <c r="CI8">
+        <v>0.49431999999999998</v>
+      </c>
+      <c r="CJ8">
+        <v>0.47567999999999999</v>
+      </c>
+      <c r="CK8">
+        <v>0.49478</v>
+      </c>
+      <c r="CL8">
+        <v>0.48465999999999998</v>
+      </c>
+      <c r="CM8">
+        <v>0.47558</v>
+      </c>
+      <c r="CN8">
+        <v>0.48483999999999999</v>
+      </c>
+      <c r="CO8">
+        <v>0.49484</v>
+      </c>
+      <c r="CP8">
+        <v>0.49991999999999998</v>
+      </c>
+      <c r="CQ8">
+        <v>0.51051999999999997</v>
+      </c>
+      <c r="CR8">
+        <v>0.51480000000000004</v>
+      </c>
+      <c r="CS8">
+        <v>0.46455999999999997</v>
+      </c>
+      <c r="CT8">
+        <v>0.50758000000000003</v>
+      </c>
+      <c r="CU8">
+        <v>0.49175999999999997</v>
+      </c>
+      <c r="CV8">
+        <v>0.50963999999999998</v>
+      </c>
+      <c r="CW8">
+        <v>0.48903159999999984</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.45762000000000003</v>
-      </c>
-      <c r="B8">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.47077999999999998</v>
+      </c>
+      <c r="B9">
+        <v>0.49853999999999998</v>
+      </c>
+      <c r="C9">
+        <v>0.48132000000000003</v>
+      </c>
+      <c r="D9">
+        <v>0.49930000000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.48236000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.48063</v>
+      </c>
+      <c r="G9">
+        <v>0.51948000000000005</v>
+      </c>
+      <c r="H9">
+        <v>0.49092000000000002</v>
+      </c>
+      <c r="I9">
+        <v>0.48664000000000002</v>
+      </c>
+      <c r="J9">
+        <v>0.4889</v>
+      </c>
+      <c r="K9">
+        <v>0.50902000000000003</v>
+      </c>
+      <c r="L9">
+        <v>0.47986000000000001</v>
+      </c>
+      <c r="M9">
+        <v>0.50114000000000003</v>
+      </c>
+      <c r="N9">
+        <v>0.4965</v>
+      </c>
+      <c r="O9">
+        <v>0.49543999999999999</v>
+      </c>
+      <c r="P9">
+        <v>0.48458000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>0.51693999999999996</v>
+      </c>
+      <c r="R9">
+        <v>0.48132000000000003</v>
+      </c>
+      <c r="S9">
+        <v>0.52595999999999998</v>
+      </c>
+      <c r="T9">
+        <v>0.49481999999999998</v>
+      </c>
+      <c r="U9">
+        <v>0.46132000000000001</v>
+      </c>
+      <c r="V9">
+        <v>0.47683999999999999</v>
+      </c>
+      <c r="W9">
+        <v>0.49330000000000002</v>
+      </c>
+      <c r="X9">
+        <v>0.49515999999999999</v>
+      </c>
+      <c r="Y9">
+        <v>0.47288000000000002</v>
+      </c>
+      <c r="Z9">
+        <v>0.49453999999999998</v>
+      </c>
+      <c r="AA9">
+        <v>0.48858000000000001</v>
+      </c>
+      <c r="AB9">
+        <v>0.46655999999999997</v>
+      </c>
+      <c r="AC9">
+        <v>0.50619999999999998</v>
+      </c>
+      <c r="AD9">
+        <v>0.49941999999999998</v>
+      </c>
+      <c r="AE9">
+        <v>0.50797999999999999</v>
+      </c>
+      <c r="AF9">
+        <v>0.51088999999999996</v>
+      </c>
+      <c r="AG9">
+        <v>0.48504000000000003</v>
+      </c>
+      <c r="AH9">
+        <v>0.51339999999999997</v>
+      </c>
+      <c r="AI9">
+        <v>0.47976000000000002</v>
+      </c>
+      <c r="AJ9">
+        <v>0.47045999999999999</v>
+      </c>
+      <c r="AK9">
+        <v>0.48958000000000002</v>
+      </c>
+      <c r="AL9">
+        <v>0.48</v>
+      </c>
+      <c r="AM9">
+        <v>0.50029999999999997</v>
+      </c>
+      <c r="AN9">
+        <v>0.48965999999999998</v>
+      </c>
+      <c r="AO9">
+        <v>0.50004000000000004</v>
+      </c>
+      <c r="AP9">
+        <v>0.49706</v>
+      </c>
+      <c r="AQ9">
+        <v>0.47417999999999999</v>
+      </c>
+      <c r="AR9">
+        <v>0.48220000000000002</v>
+      </c>
+      <c r="AS9">
+        <v>0.47648000000000001</v>
+      </c>
+      <c r="AT9">
+        <v>0.47608</v>
+      </c>
+      <c r="AU9">
+        <v>0.49192000000000002</v>
+      </c>
+      <c r="AV9">
+        <v>0.49602000000000002</v>
+      </c>
+      <c r="AW9">
         <v>0.47989999999999999</v>
       </c>
-      <c r="C8">
-        <v>0.46876000000000001</v>
+      <c r="AX9">
+        <v>0.48471999999999998</v>
+      </c>
+      <c r="AY9">
+        <v>0.49528</v>
+      </c>
+      <c r="AZ9">
+        <v>0.46548</v>
+      </c>
+      <c r="BA9">
+        <v>0.50158000000000003</v>
+      </c>
+      <c r="BB9">
+        <v>0.49858000000000002</v>
+      </c>
+      <c r="BC9">
+        <v>0.50463999999999998</v>
+      </c>
+      <c r="BD9">
+        <v>0.49262</v>
+      </c>
+      <c r="BE9">
+        <v>0.49509999999999998</v>
+      </c>
+      <c r="BF9">
+        <v>0.51517999999999997</v>
+      </c>
+      <c r="BG9">
+        <v>0.49131999999999998</v>
+      </c>
+      <c r="BH9">
+        <v>0.48726000000000003</v>
+      </c>
+      <c r="BI9">
+        <v>0.46082000000000001</v>
+      </c>
+      <c r="BJ9">
+        <v>0.48018</v>
+      </c>
+      <c r="BK9">
+        <v>0.51024000000000003</v>
+      </c>
+      <c r="BL9">
+        <v>0.48459999999999998</v>
+      </c>
+      <c r="BM9">
+        <v>0.48104000000000002</v>
+      </c>
+      <c r="BN9">
+        <v>0.502</v>
+      </c>
+      <c r="BO9">
+        <v>0.45513999999999999</v>
+      </c>
+      <c r="BP9">
+        <v>0.47511999999999999</v>
+      </c>
+      <c r="BQ9">
+        <v>0.48908000000000001</v>
+      </c>
+      <c r="BR9">
+        <v>0.47571999999999998</v>
+      </c>
+      <c r="BS9">
+        <v>0.47832000000000002</v>
+      </c>
+      <c r="BT9">
+        <v>0.46654000000000001</v>
+      </c>
+      <c r="BU9">
+        <v>0.49042000000000002</v>
+      </c>
+      <c r="BV9">
+        <v>0.49115999999999999</v>
+      </c>
+      <c r="BW9">
+        <v>0.46794000000000002</v>
+      </c>
+      <c r="BX9">
+        <v>0.52849999999999997</v>
+      </c>
+      <c r="BY9">
+        <v>0.48512</v>
+      </c>
+      <c r="BZ9">
+        <v>0.46995999999999999</v>
+      </c>
+      <c r="CA9">
+        <v>0.50892000000000004</v>
+      </c>
+      <c r="CB9">
+        <v>0.48875999999999997</v>
+      </c>
+      <c r="CC9">
+        <v>0.48505999999999999</v>
+      </c>
+      <c r="CD9">
+        <v>0.50744</v>
+      </c>
+      <c r="CE9">
+        <v>0.48180000000000001</v>
+      </c>
+      <c r="CF9">
+        <v>0.49493999999999999</v>
+      </c>
+      <c r="CG9">
+        <v>0.48126000000000002</v>
+      </c>
+      <c r="CH9">
+        <v>0.46482000000000001</v>
+      </c>
+      <c r="CI9">
+        <v>0.48014000000000001</v>
+      </c>
+      <c r="CJ9">
+        <v>0.50139999999999996</v>
+      </c>
+      <c r="CK9">
+        <v>0.48914000000000002</v>
+      </c>
+      <c r="CL9">
+        <v>0.47605999999999998</v>
+      </c>
+      <c r="CM9">
+        <v>0.47410000000000002</v>
+      </c>
+      <c r="CN9">
+        <v>0.48483999999999999</v>
+      </c>
+      <c r="CO9">
+        <v>0.51202000000000003</v>
+      </c>
+      <c r="CP9">
+        <v>0.46188000000000001</v>
+      </c>
+      <c r="CQ9">
+        <v>0.47976000000000002</v>
+      </c>
+      <c r="CR9">
+        <v>0.50648000000000004</v>
+      </c>
+      <c r="CS9">
+        <v>0.51649999999999996</v>
+      </c>
+      <c r="CT9">
+        <v>0.50566</v>
+      </c>
+      <c r="CU9">
+        <v>0.50141999999999998</v>
+      </c>
+      <c r="CV9">
+        <v>0.50529999999999997</v>
+      </c>
+      <c r="CW9">
+        <v>0.48971560000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.45441999999999999</v>
-      </c>
-      <c r="B9">
-        <v>0.51844000000000001</v>
-      </c>
-      <c r="C9">
-        <v>0.48643000000000003</v>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.45754</v>
+      </c>
+      <c r="B10">
+        <v>0.48364000000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.47439999999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.47214</v>
+      </c>
+      <c r="E10">
+        <v>0.48114000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.4945</v>
+      </c>
+      <c r="G10">
+        <v>0.47060000000000002</v>
+      </c>
+      <c r="H10">
+        <v>0.47861999999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.49768000000000001</v>
+      </c>
+      <c r="J10">
+        <v>0.50009999999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.48139999999999999</v>
+      </c>
+      <c r="L10">
+        <v>0.47248000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.47871999999999998</v>
+      </c>
+      <c r="N10">
+        <v>0.50438000000000005</v>
+      </c>
+      <c r="O10">
+        <v>0.46216000000000002</v>
+      </c>
+      <c r="P10">
+        <v>0.49021999999999999</v>
+      </c>
+      <c r="Q10">
+        <v>0.48598000000000002</v>
+      </c>
+      <c r="R10">
+        <v>0.46017999999999998</v>
+      </c>
+      <c r="S10">
+        <v>0.47764000000000001</v>
+      </c>
+      <c r="T10">
+        <v>0.50172000000000005</v>
+      </c>
+      <c r="U10">
+        <v>0.48614000000000002</v>
+      </c>
+      <c r="V10">
+        <v>0.49168000000000001</v>
+      </c>
+      <c r="W10">
+        <v>0.48318</v>
+      </c>
+      <c r="X10">
+        <v>0.47898000000000002</v>
+      </c>
+      <c r="Y10">
+        <v>0.48143999999999998</v>
+      </c>
+      <c r="Z10">
+        <v>0.47658</v>
+      </c>
+      <c r="AA10">
+        <v>0.49790000000000001</v>
+      </c>
+      <c r="AB10">
+        <v>0.49062</v>
+      </c>
+      <c r="AC10">
+        <v>0.48427999999999999</v>
+      </c>
+      <c r="AD10">
+        <v>0.50802000000000003</v>
+      </c>
+      <c r="AE10">
+        <v>0.48208000000000001</v>
+      </c>
+      <c r="AF10">
+        <v>0.49636000000000002</v>
+      </c>
+      <c r="AG10">
+        <v>0.46314</v>
+      </c>
+      <c r="AH10">
+        <v>0.49184</v>
+      </c>
+      <c r="AI10">
+        <v>0.48777999999999999</v>
+      </c>
+      <c r="AJ10">
+        <v>0.50602000000000003</v>
+      </c>
+      <c r="AK10">
+        <v>0.48956</v>
+      </c>
+      <c r="AL10">
+        <v>0.49696000000000001</v>
+      </c>
+      <c r="AM10">
+        <v>0.49131999999999998</v>
+      </c>
+      <c r="AN10">
+        <v>0.49568000000000001</v>
+      </c>
+      <c r="AO10">
+        <v>0.49714000000000003</v>
+      </c>
+      <c r="AP10">
+        <v>0.45613999999999999</v>
+      </c>
+      <c r="AQ10">
+        <v>0.48054000000000002</v>
+      </c>
+      <c r="AR10">
+        <v>0.48161999999999999</v>
+      </c>
+      <c r="AS10">
+        <v>0.46466000000000002</v>
+      </c>
+      <c r="AT10">
+        <v>0.48036000000000001</v>
+      </c>
+      <c r="AU10">
+        <v>0.46633999999999998</v>
+      </c>
+      <c r="AV10">
+        <v>0.48887999999999998</v>
+      </c>
+      <c r="AW10">
+        <v>0.47333999999999998</v>
+      </c>
+      <c r="AX10">
+        <v>0.50614000000000003</v>
+      </c>
+      <c r="AY10">
+        <v>0.46307999999999999</v>
+      </c>
+      <c r="AZ10">
+        <v>0.49271999999999999</v>
+      </c>
+      <c r="BA10">
+        <v>0.48709999999999998</v>
+      </c>
+      <c r="BB10">
+        <v>0.48818</v>
+      </c>
+      <c r="BC10">
+        <v>0.48627999999999999</v>
+      </c>
+      <c r="BD10">
+        <v>0.47770000000000001</v>
+      </c>
+      <c r="BE10">
+        <v>0.48127999999999999</v>
+      </c>
+      <c r="BF10">
+        <v>0.48970000000000002</v>
+      </c>
+      <c r="BG10">
+        <v>0.48421999999999998</v>
+      </c>
+      <c r="BH10">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="BI10">
+        <v>0.50012000000000001</v>
+      </c>
+      <c r="BJ10">
+        <v>0.45417999999999997</v>
+      </c>
+      <c r="BK10">
+        <v>0.48853999999999997</v>
+      </c>
+      <c r="BL10">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="BM10">
+        <v>0.49437999999999999</v>
+      </c>
+      <c r="BN10">
+        <v>0.49564000000000002</v>
+      </c>
+      <c r="BO10">
+        <v>0.49430000000000002</v>
+      </c>
+      <c r="BP10">
+        <v>0.50236000000000003</v>
+      </c>
+      <c r="BQ10">
+        <v>0.48705999999999999</v>
+      </c>
+      <c r="BR10">
+        <v>0.50575999999999999</v>
+      </c>
+      <c r="BS10">
+        <v>0.48748000000000002</v>
+      </c>
+      <c r="BT10">
+        <v>0.48342000000000002</v>
+      </c>
+      <c r="BU10">
+        <v>0.48474</v>
+      </c>
+      <c r="BV10">
+        <v>0.48681999999999997</v>
+      </c>
+      <c r="BW10">
+        <v>0.49562</v>
+      </c>
+      <c r="BX10">
+        <v>0.48992000000000002</v>
+      </c>
+      <c r="BY10">
+        <v>0.49120000000000003</v>
+      </c>
+      <c r="BZ10">
+        <v>0.46373999999999999</v>
+      </c>
+      <c r="CA10">
+        <v>0.47738000000000003</v>
+      </c>
+      <c r="CB10">
+        <v>0.47070000000000001</v>
+      </c>
+      <c r="CC10">
+        <v>0.50363999999999998</v>
+      </c>
+      <c r="CD10">
+        <v>0.50460000000000005</v>
+      </c>
+      <c r="CE10">
+        <v>0.46316000000000002</v>
+      </c>
+      <c r="CF10">
+        <v>0.48198000000000002</v>
+      </c>
+      <c r="CG10">
+        <v>0.48875999999999997</v>
+      </c>
+      <c r="CH10">
+        <v>0.46555999999999997</v>
+      </c>
+      <c r="CI10">
+        <v>0.48061999999999999</v>
+      </c>
+      <c r="CJ10">
+        <v>0.47798000000000002</v>
+      </c>
+      <c r="CK10">
+        <v>0.48039999999999999</v>
+      </c>
+      <c r="CL10">
+        <v>0.48618</v>
+      </c>
+      <c r="CM10">
+        <v>0.48018</v>
+      </c>
+      <c r="CN10">
+        <v>0.48604000000000003</v>
+      </c>
+      <c r="CO10">
+        <v>0.50092000000000003</v>
+      </c>
+      <c r="CP10">
+        <v>0.48</v>
+      </c>
+      <c r="CQ10">
+        <v>0.46764</v>
+      </c>
+      <c r="CR10">
+        <v>0.49952000000000002</v>
+      </c>
+      <c r="CS10">
+        <v>0.47986000000000001</v>
+      </c>
+      <c r="CT10">
+        <v>0.46601999999999999</v>
+      </c>
+      <c r="CU10">
+        <v>0.46450000000000002</v>
+      </c>
+      <c r="CV10">
+        <v>0.46948000000000001</v>
+      </c>
+      <c r="CW10">
+        <v>0.48401620000000023</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.48436000000000001</v>
-      </c>
-      <c r="B10">
-        <v>0.48948000000000003</v>
-      </c>
-      <c r="C10">
-        <v>0.48692000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.48261999999999999</v>
+        <v>0.48562</v>
       </c>
       <c r="B11">
-        <v>0.49193999999999999</v>
+        <v>0.49492000000000003</v>
       </c>
       <c r="C11">
-        <v>0.48727999999999999</v>
+        <v>0.48636000000000001</v>
+      </c>
+      <c r="D11">
+        <v>0.48096</v>
+      </c>
+      <c r="E11">
+        <v>0.47482000000000002</v>
+      </c>
+      <c r="F11">
+        <v>0.48642000000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.48668</v>
+      </c>
+      <c r="H11">
+        <v>0.49528</v>
+      </c>
+      <c r="I11">
+        <v>0.49915999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.50417999999999996</v>
+      </c>
+      <c r="K11">
+        <v>0.50817999999999997</v>
+      </c>
+      <c r="L11">
+        <v>0.47026000000000001</v>
+      </c>
+      <c r="M11">
+        <v>0.48349999999999999</v>
+      </c>
+      <c r="N11">
+        <v>0.46407999999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.49786000000000002</v>
+      </c>
+      <c r="P11">
+        <v>0.47711999999999999</v>
+      </c>
+      <c r="Q11">
+        <v>0.49218000000000001</v>
+      </c>
+      <c r="R11">
+        <v>0.50771999999999995</v>
+      </c>
+      <c r="S11">
+        <v>0.46206000000000003</v>
+      </c>
+      <c r="T11">
+        <v>0.48454000000000003</v>
+      </c>
+      <c r="U11">
+        <v>0.47476000000000002</v>
+      </c>
+      <c r="V11">
+        <v>0.49846000000000001</v>
+      </c>
+      <c r="W11">
+        <v>0.47244000000000003</v>
+      </c>
+      <c r="X11">
+        <v>0.46982000000000002</v>
+      </c>
+      <c r="Y11">
+        <v>0.4894</v>
+      </c>
+      <c r="Z11">
+        <v>0.47483999999999998</v>
+      </c>
+      <c r="AA11">
+        <v>0.50287999999999999</v>
+      </c>
+      <c r="AB11">
+        <v>0.46385999999999999</v>
+      </c>
+      <c r="AC11">
+        <v>0.47882000000000002</v>
+      </c>
+      <c r="AD11">
+        <v>0.48730000000000001</v>
+      </c>
+      <c r="AE11">
+        <v>0.47802</v>
+      </c>
+      <c r="AF11">
+        <v>0.49963999999999997</v>
+      </c>
+      <c r="AG11">
+        <v>0.47502</v>
+      </c>
+      <c r="AH11">
+        <v>0.47239999999999999</v>
+      </c>
+      <c r="AI11">
+        <v>0.48518</v>
+      </c>
+      <c r="AJ11">
+        <v>0.47971999999999998</v>
+      </c>
+      <c r="AK11">
+        <v>0.50505999999999995</v>
+      </c>
+      <c r="AL11">
+        <v>0.47316000000000003</v>
+      </c>
+      <c r="AM11">
+        <v>0.45873999999999998</v>
+      </c>
+      <c r="AN11">
+        <v>0.47965999999999998</v>
+      </c>
+      <c r="AO11">
+        <v>0.49203999999999998</v>
+      </c>
+      <c r="AP11">
+        <v>0.46851999999999999</v>
+      </c>
+      <c r="AQ11">
+        <v>0.49337999999999999</v>
+      </c>
+      <c r="AR11">
+        <v>0.47664000000000001</v>
+      </c>
+      <c r="AS11">
+        <v>0.46204000000000001</v>
+      </c>
+      <c r="AT11">
+        <v>0.48496</v>
+      </c>
+      <c r="AU11">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="AV11">
+        <v>0.48318</v>
+      </c>
+      <c r="AW11">
+        <v>0.48374</v>
+      </c>
+      <c r="AX11">
+        <v>0.50127999999999995</v>
+      </c>
+      <c r="AY11">
+        <v>0.48877999999999999</v>
+      </c>
+      <c r="AZ11">
+        <v>0.49884000000000001</v>
+      </c>
+      <c r="BA11">
+        <v>0.47524</v>
+      </c>
+      <c r="BB11">
+        <v>0.47336</v>
+      </c>
+      <c r="BC11">
+        <v>0.48368</v>
+      </c>
+      <c r="BD11">
+        <v>0.50444</v>
+      </c>
+      <c r="BE11">
+        <v>0.47905999999999999</v>
+      </c>
+      <c r="BF11">
+        <v>0.4819</v>
+      </c>
+      <c r="BG11">
+        <v>0.47023999999999999</v>
+      </c>
+      <c r="BH11">
+        <v>0.48849999999999999</v>
+      </c>
+      <c r="BI11">
+        <v>0.49564000000000002</v>
+      </c>
+      <c r="BJ11">
+        <v>0.49764000000000003</v>
+      </c>
+      <c r="BK11">
+        <v>0.47288000000000002</v>
+      </c>
+      <c r="BL11">
+        <v>0.49969999999999998</v>
+      </c>
+      <c r="BM11">
+        <v>0.50253999999999999</v>
+      </c>
+      <c r="BN11">
+        <v>0.48674000000000001</v>
+      </c>
+      <c r="BO11">
+        <v>0.50571999999999995</v>
+      </c>
+      <c r="BP11">
+        <v>0.46766000000000002</v>
+      </c>
+      <c r="BQ11">
+        <v>0.48508000000000001</v>
+      </c>
+      <c r="BR11">
+        <v>0.49368000000000001</v>
+      </c>
+      <c r="BS11">
+        <v>0.48027999999999998</v>
+      </c>
+      <c r="BT11">
+        <v>0.4919</v>
+      </c>
+      <c r="BU11">
+        <v>0.48226000000000002</v>
+      </c>
+      <c r="BV11">
+        <v>0.52556000000000003</v>
+      </c>
+      <c r="BW11">
+        <v>0.47771999999999998</v>
+      </c>
+      <c r="BX11">
+        <v>0.47094000000000003</v>
+      </c>
+      <c r="BY11">
+        <v>0.47982000000000002</v>
+      </c>
+      <c r="BZ11">
+        <v>0.47273999999999999</v>
+      </c>
+      <c r="CA11">
+        <v>0.48621999999999999</v>
+      </c>
+      <c r="CB11">
+        <v>0.50366</v>
+      </c>
+      <c r="CC11">
+        <v>0.48730000000000001</v>
+      </c>
+      <c r="CD11">
+        <v>0.48764000000000002</v>
+      </c>
+      <c r="CE11">
+        <v>0.50014000000000003</v>
+      </c>
+      <c r="CF11">
+        <v>0.49074000000000001</v>
+      </c>
+      <c r="CG11">
+        <v>0.47761999999999999</v>
+      </c>
+      <c r="CH11">
+        <v>0.47527999999999998</v>
+      </c>
+      <c r="CI11">
+        <v>0.50209999999999999</v>
+      </c>
+      <c r="CJ11">
+        <v>0.50724000000000002</v>
+      </c>
+      <c r="CK11">
+        <v>0.49464000000000002</v>
+      </c>
+      <c r="CL11">
+        <v>0.46510000000000001</v>
+      </c>
+      <c r="CM11">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="CN11">
+        <v>0.46866000000000002</v>
+      </c>
+      <c r="CO11">
+        <v>0.48265999999999998</v>
+      </c>
+      <c r="CP11">
+        <v>0.48959000000000003</v>
+      </c>
+      <c r="CQ11">
+        <v>0.47338000000000002</v>
+      </c>
+      <c r="CR11">
+        <v>0.48812</v>
+      </c>
+      <c r="CS11">
+        <v>0.51070000000000004</v>
+      </c>
+      <c r="CT11">
+        <v>0.48308000000000001</v>
+      </c>
+      <c r="CU11">
+        <v>0.47874</v>
+      </c>
+      <c r="CV11">
+        <v>0.47674</v>
+      </c>
+      <c r="CW11">
+        <v>0.48551750000000005</v>
       </c>
     </row>
   </sheetData>
